--- a/results/comparaison/GM/diattenuation/mean_raw_data.xlsx
+++ b/results/comparaison/GM/diattenuation/mean_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.0312162622883872</v>
+      </c>
+      <c r="C2">
+        <v>0.0188324199101965</v>
+      </c>
+      <c r="D2">
+        <v>0.0229208694556023</v>
+      </c>
+      <c r="E2">
         <v>0.0228528886157362</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>0.0326701304142016</v>
+      </c>
+      <c r="G2">
+        <v>0.0275070970830013</v>
+      </c>
+      <c r="H2">
+        <v>0.0349002154835971</v>
+      </c>
+      <c r="I2">
+        <v>0.0155871835361036</v>
+      </c>
+      <c r="J2">
         <v>0.0326464672081783</v>
       </c>
-      <c r="D2">
-        <v>0.0308334630219982</v>
-      </c>
-      <c r="E2">
-        <v>0.0382009613866211</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.0336298193169579</v>
       </c>
-      <c r="G2">
-        <v>0.0271678748631214</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>0.0333506381451922</v>
+      </c>
+      <c r="M2">
+        <v>0.0382966445110242</v>
+      </c>
+      <c r="N2">
         <v>0.0203131106499277</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.0269430709827221</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>0.0302281237152905</v>
       </c>
-      <c r="K2">
-        <v>0.0306991431075307</v>
-      </c>
-      <c r="L2">
-        <v>0.0304662535489035</v>
-      </c>
-      <c r="M2">
-        <v>0.0326701304142016</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.021839643526435</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.0226439253649225</v>
       </c>
-      <c r="P2">
-        <v>0.0345459468987279</v>
-      </c>
-      <c r="Q2">
-        <v>0.033981995153356</v>
-      </c>
-      <c r="R2">
-        <v>0.0341651292559572</v>
-      </c>
       <c r="S2">
-        <v>0.0203810048025423</v>
+        <v>0.0313992819730352</v>
       </c>
       <c r="T2">
-        <v>0.0282741124858008</v>
+        <v>0.0149165880860007</v>
       </c>
       <c r="U2">
-        <v>0.0275070970830013</v>
+        <v>0.0268783798581042</v>
       </c>
       <c r="V2">
-        <v>0.0209402391486878</v>
+        <v>0.0261604862774741</v>
       </c>
       <c r="W2">
-        <v>0.0319695449168784</v>
+        <v>0.0244489857177791</v>
       </c>
       <c r="X2">
-        <v>0.0349002154835971</v>
+        <v>0.0253309381117704</v>
       </c>
       <c r="Y2">
-        <v>0.0339381632167589</v>
+        <v>0.0353846119355937</v>
       </c>
       <c r="Z2">
-        <v>0.0155871835361036</v>
+        <v>0.033328026991507</v>
       </c>
       <c r="AA2">
-        <v>0.0283956665843774</v>
+        <v>0.0147331591408415</v>
       </c>
       <c r="AB2">
-        <v>0.025873319581639</v>
+        <v>0.0154262014074273</v>
       </c>
       <c r="AC2">
-        <v>0.0296366802153656</v>
+        <v>0.0206818827249008</v>
       </c>
       <c r="AD2">
-        <v>0.0202589303604351</v>
+        <v>0.0227378932841735</v>
       </c>
       <c r="AE2">
-        <v>0.0236679161074605</v>
+        <v>0.0350539745942685</v>
       </c>
       <c r="AF2">
-        <v>0.0160401682040824</v>
+        <v>0.021455944806013</v>
       </c>
       <c r="AG2">
-        <v>0.0234709020952599</v>
+        <v>0.0220586149302167</v>
       </c>
       <c r="AH2">
-        <v>0.0258317180777087</v>
+        <v>0.0266182177708048</v>
       </c>
       <c r="AI2">
-        <v>0.0232726763620953</v>
+        <v>0.0231346899382673</v>
       </c>
       <c r="AJ2">
-        <v>0.0213311344692722</v>
+        <v>0.0328591438641212</v>
       </c>
       <c r="AK2">
-        <v>0.02380519512008</v>
+        <v>0.0293391677566706</v>
       </c>
       <c r="AL2">
-        <v>0.0263980858600193</v>
+        <v>0.0201494674664964</v>
       </c>
       <c r="AM2">
-        <v>0.0220581403022434</v>
+        <v>0.0400365920963156</v>
       </c>
       <c r="AN2">
-        <v>0.0196200351041731</v>
+        <v>0.0210596082174242</v>
       </c>
       <c r="AO2">
-        <v>0.0222175872292126</v>
+        <v>0.023835350012106</v>
       </c>
       <c r="AP2">
-        <v>0.0195439383267134</v>
+        <v>0.0267959693888347</v>
       </c>
       <c r="AQ2">
-        <v>0.02305862020203</v>
+        <v>0.0226517796108592</v>
       </c>
       <c r="AR2">
-        <v>0.0182650081548385</v>
+        <v>0.0313211320747734</v>
       </c>
       <c r="AS2">
-        <v>0.0158826927216253</v>
+        <v>0.0210868848662592</v>
       </c>
       <c r="AT2">
-        <v>0.0154351885287941</v>
+        <v>0.0163911825428173</v>
       </c>
       <c r="AU2">
-        <v>0.0227335537025852</v>
+        <v>0.0307527243349527</v>
       </c>
       <c r="AV2">
-        <v>0.0234035594394782</v>
+        <v>0.0331951127870394</v>
       </c>
       <c r="AW2">
-        <v>0.0193013957730661</v>
+        <v>0.018151019138128</v>
       </c>
       <c r="AX2">
-        <v>0.0174663213946881</v>
+        <v>0.0321044451400084</v>
       </c>
       <c r="AY2">
-        <v>0.0243458367011801</v>
+        <v>0.0177224761795073</v>
       </c>
       <c r="AZ2">
-        <v>0.0343601235814741</v>
+        <v>0.0290269508839952</v>
       </c>
       <c r="BA2">
-        <v>0.0358483093670933</v>
+        <v>0.0382339896913858</v>
       </c>
       <c r="BB2">
-        <v>0.0285753348474881</v>
+        <v>0.038215081513377</v>
       </c>
       <c r="BC2">
-        <v>0.0339871813209119</v>
+        <v>0.0336150435714274</v>
       </c>
       <c r="BD2">
-        <v>0.0255139379938394</v>
+        <v>0.0285239758927943</v>
       </c>
       <c r="BE2">
-        <v>0.033770813578478</v>
+        <v>0.0340488410562162</v>
       </c>
       <c r="BF2">
-        <v>0.0326570465771209</v>
+        <v>0.0304034961027668</v>
       </c>
       <c r="BG2">
-        <v>0.0254184715348674</v>
+        <v>0.0364323314789391</v>
       </c>
       <c r="BH2">
-        <v>0.0334224857158981</v>
+        <v>0.0259158693018432</v>
       </c>
       <c r="BI2">
-        <v>0.0313437135973107</v>
+        <v>0.0402618385573149</v>
       </c>
       <c r="BJ2">
-        <v>0.0287427954112537</v>
+        <v>0.025483438709784</v>
       </c>
       <c r="BK2">
-        <v>0.0258236929255445</v>
+        <v>0.025784826232317</v>
       </c>
       <c r="BL2">
-        <v>0.0324176607238745</v>
+        <v>0.0318789415188615</v>
       </c>
       <c r="BM2">
-        <v>0.0308668635088612</v>
+        <v>0.0234018359892078</v>
       </c>
       <c r="BN2">
-        <v>0.0329894310233934</v>
+        <v>0.0303086972389393</v>
       </c>
       <c r="BO2">
-        <v>0.0294301278292259</v>
+        <v>0.0281359346183723</v>
       </c>
       <c r="BP2">
-        <v>0.0415063237012299</v>
+        <v>0.0239102691729564</v>
       </c>
       <c r="BQ2">
-        <v>0.0351292019412917</v>
+        <v>0.0274248607572513</v>
       </c>
       <c r="BR2">
-        <v>0.0318515032748452</v>
+        <v>0.0283026845763761</v>
       </c>
       <c r="BS2">
-        <v>0.0338058357122286</v>
+        <v>0.0294145460460593</v>
       </c>
       <c r="BT2">
-        <v>0.0386237039092039</v>
+        <v>0.0335672496256877</v>
       </c>
       <c r="BU2">
-        <v>0.0296996211461227</v>
+        <v>0.02229785459942</v>
       </c>
       <c r="BV2">
-        <v>0.0238576457627176</v>
+        <v>0.0326382792341647</v>
       </c>
       <c r="BW2">
-        <v>0.029467474012146</v>
+        <v>0.0309959495469504</v>
       </c>
       <c r="BX2">
-        <v>0.023379935952979</v>
+        <v>0.0298546289905836</v>
       </c>
       <c r="BY2">
-        <v>0.022638394347732</v>
+        <v>0.0298673029302904</v>
       </c>
       <c r="BZ2">
-        <v>0.0197526441336346</v>
+        <v>0.0300246529863282</v>
       </c>
       <c r="CA2">
-        <v>0.0298478177984307</v>
+        <v>0.0232078210751175</v>
       </c>
       <c r="CB2">
-        <v>0.0294416049350867</v>
+        <v>0.0275418707488383</v>
       </c>
       <c r="CC2">
-        <v>0.0434953294759214</v>
+        <v>0.0242454644897163</v>
       </c>
       <c r="CD2">
-        <v>0.0237281295564656</v>
+        <v>0.0253445467820592</v>
       </c>
       <c r="CE2">
-        <v>0.0177652899629771</v>
+        <v>0.0306665003845527</v>
       </c>
       <c r="CF2">
-        <v>0.0365708672414737</v>
+        <v>0.0226810373074109</v>
       </c>
       <c r="CG2">
-        <v>0.0312854149278314</v>
+        <v>0.0304021436534715</v>
       </c>
       <c r="CH2">
-        <v>0.0201006469304134</v>
+        <v>0.0354595215454125</v>
       </c>
       <c r="CI2">
-        <v>0.0258061038476991</v>
+        <v>0.0225615215895032</v>
       </c>
       <c r="CJ2">
-        <v>0.0331392031736695</v>
+        <v>0.0219501359976424</v>
       </c>
       <c r="CK2">
-        <v>0.0281708634698961</v>
+        <v>0.0408458739134723</v>
       </c>
       <c r="CL2">
-        <v>0.0211378161513008</v>
+        <v>0.035537799581895</v>
       </c>
       <c r="CM2">
-        <v>0.0361119864171573</v>
+        <v>0.0293179036569028</v>
       </c>
       <c r="CN2">
-        <v>0.0355355498936695</v>
+        <v>0.0201770304201116</v>
       </c>
       <c r="CO2">
-        <v>0.02424102906735</v>
+        <v>0.0249521417083054</v>
       </c>
       <c r="CP2">
-        <v>0.0281400592699162</v>
+        <v>0.0303185156425004</v>
       </c>
       <c r="CQ2">
-        <v>0.0239507997199776</v>
+        <v>0.0339209004799187</v>
       </c>
       <c r="CR2">
-        <v>0.0242570710265049</v>
+        <v>0.0302068293076249</v>
       </c>
       <c r="CS2">
-        <v>0.030785754846779</v>
+        <v>0.0347814925614044</v>
       </c>
       <c r="CT2">
-        <v>0.0253192541999368</v>
+        <v>0.0390165565960407</v>
       </c>
       <c r="CU2">
-        <v>0.0376844764751599</v>
+        <v>0.0209167396024719</v>
       </c>
       <c r="CV2">
-        <v>0.0181767686034654</v>
+        <v>0.031977054034345</v>
       </c>
       <c r="CW2">
-        <v>0.0288049033685565</v>
+        <v>0.0256711871320111</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.0157618866967472</v>
+      </c>
+      <c r="D3">
+        <v>0.0166529144197973</v>
+      </c>
+      <c r="E3">
         <v>0.0240520824004877</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>0.0351735337308622</v>
+      </c>
+      <c r="I3">
+        <v>0.0188819618503266</v>
+      </c>
+      <c r="J3">
         <v>0.0313153480224565</v>
       </c>
-      <c r="D3">
-        <v>0.0278694989416682</v>
-      </c>
-      <c r="E3">
-        <v>0.0302930618022512</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.0273104971956921</v>
       </c>
-      <c r="G3">
-        <v>0.0197806130018492</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>0.0289678144181489</v>
+      </c>
+      <c r="M3">
+        <v>0.0322201479999805</v>
+      </c>
+      <c r="N3">
         <v>0.0181716448798394</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.0215608644148198</v>
       </c>
-      <c r="L3">
-        <v>0.0289437415895619</v>
-      </c>
-      <c r="N3">
-        <v>0.0232721579126264</v>
-      </c>
       <c r="P3">
-        <v>0.0284987360047855</v>
-      </c>
-      <c r="R3">
-        <v>0.0283177022138568</v>
-      </c>
-      <c r="S3">
-        <v>0.0208934792529652</v>
+        <v>0.0275388576262544</v>
+      </c>
+      <c r="Q3">
+        <v>0.0233285818433932</v>
       </c>
       <c r="T3">
-        <v>0.0212347179351275</v>
+        <v>0.0141434325349215</v>
+      </c>
+      <c r="U3">
+        <v>0.0179188677491039</v>
       </c>
       <c r="V3">
-        <v>0.0151679404866667</v>
-      </c>
-      <c r="X3">
-        <v>0.0351735337308622</v>
+        <v>0.0191869377909153</v>
+      </c>
+      <c r="W3">
+        <v>0.0210039673143204</v>
       </c>
       <c r="Y3">
-        <v>0.0292767264724217</v>
+        <v>0.0335293731480044</v>
       </c>
       <c r="Z3">
-        <v>0.0188819618503266</v>
-      </c>
-      <c r="AB3">
-        <v>0.0304000208969873</v>
+        <v>0.0304055681522999</v>
+      </c>
+      <c r="AA3">
+        <v>0.0196126483683542</v>
       </c>
       <c r="AC3">
-        <v>0.0286955855607087</v>
+        <v>0.0261066619621888</v>
       </c>
       <c r="AD3">
-        <v>0.0268495438929948</v>
-      </c>
-      <c r="AE3">
-        <v>0.0249604674809035</v>
+        <v>0.0183545494693305</v>
       </c>
       <c r="AF3">
-        <v>0.0192393599435088</v>
+        <v>0.0224735883682304</v>
       </c>
       <c r="AG3">
-        <v>0.0199712745934547</v>
-      </c>
-      <c r="AH3">
-        <v>0.0321633996316976</v>
+        <v>0.0150447244109166</v>
       </c>
       <c r="AI3">
-        <v>0.0181875323138918</v>
+        <v>0.0150729881723167</v>
       </c>
       <c r="AJ3">
-        <v>0.0180603306168053</v>
+        <v>0.0187921380009922</v>
+      </c>
+      <c r="AK3">
+        <v>0.0277250984313563</v>
       </c>
       <c r="AL3">
-        <v>0.0258223709149853</v>
+        <v>0.02539327654363</v>
+      </c>
+      <c r="AM3">
+        <v>0.0306462992700819</v>
       </c>
       <c r="AN3">
-        <v>0.0217617512011469</v>
+        <v>0.015392584598651</v>
       </c>
       <c r="AO3">
-        <v>0.0258345526774962</v>
+        <v>0.0185064031974603</v>
       </c>
       <c r="AP3">
-        <v>0.0305071546077359</v>
+        <v>0.029069735831934</v>
       </c>
       <c r="AQ3">
-        <v>0.0275309493594471</v>
+        <v>0.0199290565155525</v>
       </c>
       <c r="AR3">
-        <v>0.0165395321850978</v>
+        <v>0.0254687826458612</v>
       </c>
       <c r="AT3">
-        <v>0.0164251299278423</v>
+        <v>0.0166916524182068</v>
+      </c>
+      <c r="AU3">
+        <v>0.0314466338687766</v>
       </c>
       <c r="AV3">
-        <v>0.0236010163259705</v>
+        <v>0.0265054118479636</v>
       </c>
       <c r="AW3">
-        <v>0.0159756039910708</v>
+        <v>0.0164607518217586</v>
       </c>
       <c r="AX3">
-        <v>0.0213885586623509</v>
+        <v>0.0308062147497319</v>
       </c>
       <c r="AY3">
-        <v>0.0274685479821675</v>
-      </c>
-      <c r="AZ3">
-        <v>0.0426478672371415</v>
+        <v>0.0182944470820183</v>
       </c>
       <c r="BA3">
-        <v>0.0417296960338112</v>
+        <v>0.0397431461417081</v>
       </c>
       <c r="BB3">
-        <v>0.0319094032807389</v>
+        <v>0.0315995190653358</v>
       </c>
       <c r="BC3">
-        <v>0.0403226414364642</v>
+        <v>0.0419310389317667</v>
       </c>
       <c r="BD3">
-        <v>0.0246413192192813</v>
+        <v>0.0273596515813706</v>
       </c>
       <c r="BE3">
-        <v>0.0311613175310865</v>
+        <v>0.0396441885239428</v>
       </c>
       <c r="BF3">
-        <v>0.0321011777001885</v>
-      </c>
-      <c r="BG3">
-        <v>0.0289035463195169</v>
+        <v>0.0270683141089955</v>
       </c>
       <c r="BH3">
-        <v>0.0323535263723279</v>
+        <v>0.0248369117286316</v>
       </c>
       <c r="BI3">
-        <v>0.0286547185466394</v>
+        <v>0.0494780063236387</v>
       </c>
       <c r="BJ3">
-        <v>0.027864610660876</v>
+        <v>0.0340973372284932</v>
+      </c>
+      <c r="BK3">
+        <v>0.0300522387200555</v>
       </c>
       <c r="BL3">
-        <v>0.0263591198165646</v>
-      </c>
-      <c r="BM3">
-        <v>0.0332639159809295</v>
+        <v>0.0361494236613214</v>
+      </c>
+      <c r="BN3">
+        <v>0.0236221007597998</v>
+      </c>
+      <c r="BO3">
+        <v>0.0274074156242629</v>
+      </c>
+      <c r="BP3">
+        <v>0.0255024519848077</v>
       </c>
       <c r="BQ3">
-        <v>0.0335454351210592</v>
+        <v>0.0310741378325885</v>
       </c>
       <c r="BR3">
-        <v>0.035491909786111</v>
+        <v>0.0272736861421848</v>
       </c>
       <c r="BS3">
-        <v>0.0433305506003968</v>
+        <v>0.0365034193549794</v>
       </c>
       <c r="BT3">
-        <v>0.0370829832434155</v>
+        <v>0.0269750538492019</v>
       </c>
       <c r="BU3">
-        <v>0.0354342847094779</v>
+        <v>0.0274442647844145</v>
       </c>
       <c r="BV3">
-        <v>0.0281679737400101</v>
+        <v>0.0386100993727685</v>
       </c>
       <c r="BW3">
-        <v>0.0280752648687372</v>
+        <v>0.0312839367357324</v>
       </c>
       <c r="BX3">
-        <v>0.0284813768028758</v>
-      </c>
-      <c r="CA3">
-        <v>0.0312005947642265</v>
+        <v>0.0331231852776702</v>
+      </c>
+      <c r="BY3">
+        <v>0.0250360817784933</v>
+      </c>
+      <c r="BZ3">
+        <v>0.0270060118814371</v>
       </c>
       <c r="CB3">
-        <v>0.030697931571906</v>
+        <v>0.0296062971635586</v>
+      </c>
+      <c r="CC3">
+        <v>0.0290023833196992</v>
       </c>
       <c r="CD3">
-        <v>0.0234868567474715</v>
+        <v>0.0258343336968196</v>
       </c>
       <c r="CE3">
-        <v>0.0170626921449019</v>
+        <v>0.0337552746103772</v>
       </c>
       <c r="CF3">
-        <v>0.0284450574106835</v>
+        <v>0.0233119745204222</v>
+      </c>
+      <c r="CG3">
+        <v>0.0309732126254539</v>
       </c>
       <c r="CH3">
-        <v>0.0224197562834125</v>
+        <v>0.0317708316484054</v>
+      </c>
+      <c r="CI3">
+        <v>0.0305755331854634</v>
       </c>
       <c r="CK3">
-        <v>0.0292872590213299</v>
+        <v>0.0349224684247691</v>
+      </c>
+      <c r="CL3">
+        <v>0.0319665130099223</v>
       </c>
       <c r="CM3">
-        <v>0.0283992189360166</v>
+        <v>0.0295621242185735</v>
       </c>
       <c r="CN3">
-        <v>0.0313245443321787</v>
+        <v>0.0238882422159974</v>
+      </c>
+      <c r="CO3">
+        <v>0.0247668110879968</v>
       </c>
       <c r="CP3">
-        <v>0.0277411297526035</v>
+        <v>0.0293830412982584</v>
+      </c>
+      <c r="CQ3">
+        <v>0.0286162191302856</v>
+      </c>
+      <c r="CR3">
+        <v>0.0307532998098805</v>
       </c>
       <c r="CS3">
-        <v>0.0319278357454644</v>
+        <v>0.0300332815887475</v>
+      </c>
+      <c r="CT3">
+        <v>0.0308641310169403</v>
+      </c>
+      <c r="CU3">
+        <v>0.0215031028552424</v>
+      </c>
+      <c r="CV3">
+        <v>0.0271194781661004</v>
+      </c>
+      <c r="CW3">
+        <v>0.0222531574573257</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.0357504944761676</v>
+      </c>
       <c r="C4">
+        <v>0.0177359083689983</v>
+      </c>
+      <c r="D4">
+        <v>0.0187375522259195</v>
+      </c>
+      <c r="E4">
+        <v>0.0264057778299949</v>
+      </c>
+      <c r="H4">
+        <v>0.0359254922957828</v>
+      </c>
+      <c r="I4">
+        <v>0.0198153690367566</v>
+      </c>
+      <c r="J4">
         <v>0.0319628876236667</v>
       </c>
-      <c r="D4">
-        <v>0.0313024192431657</v>
-      </c>
-      <c r="E4">
-        <v>0.0311018516440323</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.0306683054910948</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0.0295297460856731</v>
+      </c>
+      <c r="M4">
+        <v>0.0318717701246306</v>
+      </c>
+      <c r="N4">
         <v>0.0189308509242365</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.0261398371978728</v>
       </c>
-      <c r="L4">
-        <v>0.0296532669563109</v>
-      </c>
-      <c r="N4">
-        <v>0.0225648884582869</v>
+      <c r="P4">
+        <v>0.0292570076030843</v>
       </c>
       <c r="Q4">
-        <v>0.0376223560380107</v>
-      </c>
-      <c r="R4">
-        <v>0.0305761121509321</v>
-      </c>
-      <c r="S4">
-        <v>0.0252198635015828</v>
+        <v>0.0226299259275265</v>
       </c>
       <c r="T4">
-        <v>0.0232360532055004</v>
+        <v>0.0146707032768074</v>
+      </c>
+      <c r="U4">
+        <v>0.0194444974939344</v>
       </c>
       <c r="V4">
-        <v>0.0170888289159493</v>
+        <v>0.0224394516434497</v>
       </c>
       <c r="W4">
-        <v>0.0363751217970063</v>
-      </c>
-      <c r="X4">
-        <v>0.0359254922957828</v>
-      </c>
-      <c r="Y4">
-        <v>0.0280908620930515</v>
+        <v>0.0249146258938291</v>
+      </c>
+      <c r="Z4">
+        <v>0.0307629099698695</v>
+      </c>
+      <c r="AA4">
+        <v>0.0190360905335078</v>
       </c>
       <c r="AC4">
-        <v>0.0250899538527302</v>
-      </c>
-      <c r="AE4">
-        <v>0.0248222029156049</v>
+        <v>0.0306648144032515</v>
+      </c>
+      <c r="AD4">
+        <v>0.0221329889085594</v>
       </c>
       <c r="AF4">
-        <v>0.0187116237119432</v>
-      </c>
-      <c r="AH4">
-        <v>0.0357036895707752</v>
+        <v>0.022734797700234</v>
+      </c>
+      <c r="AG4">
+        <v>0.0155704810322418</v>
       </c>
       <c r="AI4">
-        <v>0.0174422990760775</v>
+        <v>0.0162348571849643</v>
       </c>
       <c r="AJ4">
-        <v>0.0204871697535663</v>
+        <v>0.0215036053131829</v>
+      </c>
+      <c r="AK4">
+        <v>0.0256892125910858</v>
       </c>
       <c r="AL4">
-        <v>0.0245275716552578</v>
+        <v>0.0273471575953959</v>
+      </c>
+      <c r="AM4">
+        <v>0.0320942588880634</v>
+      </c>
+      <c r="AN4">
+        <v>0.016889220970025</v>
       </c>
       <c r="AO4">
-        <v>0.0261995322268999</v>
+        <v>0.0209257490043854</v>
       </c>
       <c r="AP4">
-        <v>0.0293460593430186</v>
+        <v>0.0318140404112378</v>
       </c>
       <c r="AQ4">
-        <v>0.0295007003174333</v>
+        <v>0.0224647376511161</v>
       </c>
       <c r="AR4">
-        <v>0.0157471879078389</v>
-      </c>
-      <c r="AS4">
-        <v>0.022193245791661</v>
+        <v>0.0259069531623465</v>
       </c>
       <c r="AT4">
-        <v>0.016983956467846</v>
+        <v>0.0171650640590346</v>
+      </c>
+      <c r="AU4">
+        <v>0.0292363373727434</v>
       </c>
       <c r="AV4">
-        <v>0.0255643209727122</v>
+        <v>0.0274167208752231</v>
       </c>
       <c r="AW4">
-        <v>0.0186947545720928</v>
+        <v>0.0198810043015642</v>
       </c>
       <c r="AX4">
-        <v>0.0202856847385725</v>
+        <v>0.0299256975364094</v>
+      </c>
+      <c r="AY4">
+        <v>0.0222652155794213</v>
       </c>
       <c r="AZ4">
-        <v>0.041154174256042</v>
+        <v>0.0266896770005159</v>
       </c>
       <c r="BA4">
-        <v>0.0422694916865557</v>
+        <v>0.0403405563441512</v>
       </c>
       <c r="BB4">
-        <v>0.0324250240732269</v>
+        <v>0.0341833137280144</v>
       </c>
       <c r="BC4">
-        <v>0.041806326470261</v>
+        <v>0.0425827736722219</v>
       </c>
       <c r="BD4">
-        <v>0.0281617005331327</v>
+        <v>0.028754724840179</v>
       </c>
       <c r="BE4">
-        <v>0.0347863172292169</v>
+        <v>0.0403745356880707</v>
       </c>
       <c r="BF4">
-        <v>0.0313377427911232</v>
-      </c>
-      <c r="BG4">
-        <v>0.0307581114725205</v>
+        <v>0.030771025843528</v>
       </c>
       <c r="BH4">
-        <v>0.0342100522694724</v>
+        <v>0.0283997489783543</v>
       </c>
       <c r="BI4">
-        <v>0.0302908960819636</v>
+        <v>0.0471172817276843</v>
       </c>
       <c r="BJ4">
-        <v>0.0317062825496075</v>
+        <v>0.0335658150121625</v>
+      </c>
+      <c r="BK4">
+        <v>0.03227761164317</v>
       </c>
       <c r="BL4">
-        <v>0.0298724048493695</v>
+        <v>0.0355591239876122</v>
       </c>
       <c r="BM4">
-        <v>0.0325332695856947</v>
+        <v>0.0277367062826187</v>
       </c>
       <c r="BN4">
-        <v>0.0370517725677057</v>
+        <v>0.0279122564845529</v>
       </c>
       <c r="BO4">
-        <v>0.0376922524033615</v>
+        <v>0.0323228505663299</v>
+      </c>
+      <c r="BP4">
+        <v>0.0296839799501125</v>
+      </c>
+      <c r="BQ4">
+        <v>0.033482381017618</v>
       </c>
       <c r="BR4">
-        <v>0.0357088178666335</v>
+        <v>0.0306659821628986</v>
       </c>
       <c r="BS4">
-        <v>0.0423108760978891</v>
+        <v>0.0363546861565175</v>
+      </c>
+      <c r="BT4">
+        <v>0.0293441597769827</v>
       </c>
       <c r="BU4">
-        <v>0.0334626868098282</v>
+        <v>0.0305649066835585</v>
+      </c>
+      <c r="BV4">
+        <v>0.0400813067908888</v>
+      </c>
+      <c r="BW4">
+        <v>0.0359234143840119</v>
       </c>
       <c r="BX4">
-        <v>0.0302277361218467</v>
+        <v>0.0316227247504031</v>
       </c>
       <c r="BY4">
-        <v>0.0197470991370009</v>
-      </c>
-      <c r="CA4">
-        <v>0.0340327657355596</v>
+        <v>0.0276731233840812</v>
+      </c>
+      <c r="BZ4">
+        <v>0.0301626243001411</v>
+      </c>
+      <c r="CB4">
+        <v>0.0323431023099077</v>
+      </c>
+      <c r="CC4">
+        <v>0.0338291576989137</v>
+      </c>
+      <c r="CD4">
+        <v>0.0306777392448677</v>
       </c>
       <c r="CE4">
-        <v>0.0201971853840627</v>
+        <v>0.0379718336400761</v>
       </c>
       <c r="CF4">
-        <v>0.0310869150096176</v>
+        <v>0.0263586046938255</v>
+      </c>
+      <c r="CG4">
+        <v>0.0336327485058951</v>
       </c>
       <c r="CH4">
-        <v>0.0281319212944796</v>
+        <v>0.0354166516279716</v>
       </c>
       <c r="CI4">
-        <v>0.0300752767637722</v>
+        <v>0.0337411110068211</v>
       </c>
       <c r="CK4">
-        <v>0.0324999914836995</v>
+        <v>0.0358662314890899</v>
       </c>
       <c r="CL4">
-        <v>0.0276330599065477</v>
+        <v>0.0352532799869225</v>
       </c>
       <c r="CM4">
-        <v>0.0303282467998506</v>
+        <v>0.0330020638663567</v>
       </c>
       <c r="CN4">
-        <v>0.0352806097267109</v>
+        <v>0.0287196344656501</v>
+      </c>
+      <c r="CO4">
+        <v>0.029972565497258</v>
       </c>
       <c r="CP4">
-        <v>0.0258589334877236</v>
+        <v>0.0304131399298141</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0289011876456521</v>
+      </c>
+      <c r="CR4">
+        <v>0.034319095039695</v>
       </c>
       <c r="CS4">
-        <v>0.0356802472625873</v>
+        <v>0.0340325319808484</v>
+      </c>
+      <c r="CT4">
+        <v>0.0402259100348258</v>
       </c>
       <c r="CU4">
-        <v>0.0343756160756364</v>
+        <v>0.0220226403725885</v>
+      </c>
+      <c r="CV4">
+        <v>0.0314435386661499</v>
+      </c>
+      <c r="CW4">
+        <v>0.0218727362938501</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.0326924517767059</v>
+      </c>
+      <c r="C5">
+        <v>0.0181416491185435</v>
+      </c>
+      <c r="D5">
+        <v>0.0171458370936702</v>
+      </c>
+      <c r="E5">
         <v>0.0278325763539379</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>0.0405486793295956</v>
+      </c>
+      <c r="I5">
+        <v>0.0250123453190279</v>
+      </c>
+      <c r="J5">
         <v>0.0320127559796302</v>
       </c>
-      <c r="D5">
-        <v>0.0344715290469924</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.031266673871</v>
       </c>
-      <c r="G5">
-        <v>0.0259648137948835</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>0.0312214867664163</v>
+      </c>
+      <c r="M5">
+        <v>0.0340199326295808</v>
+      </c>
+      <c r="N5">
         <v>0.0193021987665432</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0.0228436178324915</v>
       </c>
-      <c r="N5">
-        <v>0.0245662622131835</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>0.0309424591529473</v>
+      </c>
+      <c r="Q5">
+        <v>0.0246420488182296</v>
+      </c>
+      <c r="R5">
         <v>0.0294164126595263</v>
       </c>
-      <c r="S5">
-        <v>0.0252232185908373</v>
-      </c>
-      <c r="T5">
-        <v>0.0213114976004423</v>
+      <c r="U5">
+        <v>0.0225775725179079</v>
       </c>
       <c r="V5">
-        <v>0.0159220156014855</v>
+        <v>0.0247827315266883</v>
       </c>
       <c r="W5">
-        <v>0.0335041548377574</v>
-      </c>
-      <c r="X5">
-        <v>0.0405486793295956</v>
-      </c>
-      <c r="Y5">
-        <v>0.0325390186119046</v>
+        <v>0.0239750709783541</v>
       </c>
       <c r="Z5">
-        <v>0.0250123453190279</v>
-      </c>
-      <c r="AB5">
-        <v>0.0359604030893399</v>
+        <v>0.03250348172635</v>
+      </c>
+      <c r="AA5">
+        <v>0.0200939748624382</v>
       </c>
       <c r="AC5">
-        <v>0.0290116946043328</v>
-      </c>
-      <c r="AD5">
-        <v>0.0256865811667772</v>
-      </c>
-      <c r="AE5">
-        <v>0.0267222309434071</v>
-      </c>
-      <c r="AH5">
-        <v>0.0300362580817041</v>
+        <v>0.0282289095499251</v>
+      </c>
+      <c r="AF5">
+        <v>0.0237610983780295</v>
+      </c>
+      <c r="AG5">
+        <v>0.0181321074093791</v>
       </c>
       <c r="AI5">
-        <v>0.0175658197156581</v>
+        <v>0.0167826938957278</v>
       </c>
       <c r="AJ5">
-        <v>0.0204246750833853</v>
+        <v>0.0217016530727887</v>
+      </c>
+      <c r="AK5">
+        <v>0.0265246130842426</v>
       </c>
       <c r="AL5">
-        <v>0.0254273879994</v>
-      </c>
-      <c r="AO5">
-        <v>0.0260111169644628</v>
+        <v>0.0262811448234804</v>
+      </c>
+      <c r="AM5">
+        <v>0.0291022522714448</v>
+      </c>
+      <c r="AN5">
+        <v>0.0154050662754849</v>
       </c>
       <c r="AP5">
-        <v>0.0287788841639481</v>
+        <v>0.0319453200148554</v>
       </c>
       <c r="AQ5">
-        <v>0.0267409440523311</v>
+        <v>0.0249802598459721</v>
       </c>
       <c r="AR5">
-        <v>0.014217946830643</v>
+        <v>0.0245337448000445</v>
       </c>
       <c r="AT5">
-        <v>0.0190506682431488</v>
+        <v>0.0173332517921627</v>
+      </c>
+      <c r="AU5">
+        <v>0.0355605736593101</v>
       </c>
       <c r="AV5">
-        <v>0.0264572301412097</v>
+        <v>0.024593637531925</v>
       </c>
       <c r="AW5">
-        <v>0.0187312674404678</v>
+        <v>0.0208293263780323</v>
       </c>
       <c r="AX5">
-        <v>0.0226719060612994</v>
+        <v>0.0327457198776139</v>
       </c>
       <c r="AY5">
-        <v>0.0254572788574455</v>
+        <v>0.0245416098308525</v>
       </c>
       <c r="AZ5">
-        <v>0.0389124193212274</v>
+        <v>0.0239501033720534</v>
       </c>
       <c r="BA5">
-        <v>0.0375629071357542</v>
+        <v>0.0404979473586991</v>
       </c>
       <c r="BB5">
-        <v>0.0266693935521801</v>
+        <v>0.0343612105452813</v>
       </c>
       <c r="BC5">
-        <v>0.0347420657371327</v>
+        <v>0.0375783086745867</v>
       </c>
       <c r="BD5">
-        <v>0.024960545404473</v>
+        <v>0.0249589198554741</v>
       </c>
       <c r="BE5">
-        <v>0.0328229743061273</v>
+        <v>0.0361128903437975</v>
       </c>
       <c r="BF5">
-        <v>0.0360551845664551</v>
+        <v>0.0280071254263927</v>
+      </c>
+      <c r="BG5">
+        <v>0.0380132561517683</v>
       </c>
       <c r="BH5">
-        <v>0.0341176620304284</v>
+        <v>0.0239667080145668</v>
       </c>
       <c r="BI5">
-        <v>0.0292015765761172</v>
+        <v>0.041799606661583</v>
       </c>
       <c r="BJ5">
-        <v>0.0268540215530848</v>
+        <v>0.0279728252584269</v>
+      </c>
+      <c r="BK5">
+        <v>0.0291206183348728</v>
       </c>
       <c r="BL5">
-        <v>0.0319868827219746</v>
+        <v>0.0300285046595327</v>
+      </c>
+      <c r="BM5">
+        <v>0.0254489509975079</v>
+      </c>
+      <c r="BN5">
+        <v>0.0230292015420249</v>
+      </c>
+      <c r="BO5">
+        <v>0.0297015740104757</v>
       </c>
       <c r="BP5">
-        <v>0.0319953912617588</v>
+        <v>0.0262844579775757</v>
+      </c>
+      <c r="BQ5">
+        <v>0.0317584955250128</v>
       </c>
       <c r="BR5">
-        <v>0.0296949444127513</v>
+        <v>0.0256154929405465</v>
       </c>
       <c r="BS5">
-        <v>0.04307582406021</v>
+        <v>0.032198141166718</v>
+      </c>
+      <c r="BT5">
+        <v>0.0316654179616257</v>
       </c>
       <c r="BU5">
-        <v>0.0302552880811461</v>
+        <v>0.0250211036552133</v>
       </c>
       <c r="BV5">
-        <v>0.0283694922902756</v>
+        <v>0.0345268527761833</v>
+      </c>
+      <c r="BW5">
+        <v>0.0316815561818945</v>
       </c>
       <c r="BX5">
-        <v>0.024972764346707</v>
+        <v>0.0293842473981523</v>
       </c>
       <c r="BY5">
-        <v>0.0185229382326245</v>
-      </c>
-      <c r="CA5">
-        <v>0.0291906008671736</v>
+        <v>0.0298704106843512</v>
+      </c>
+      <c r="BZ5">
+        <v>0.0255777572787548</v>
+      </c>
+      <c r="CB5">
+        <v>0.0276589247933289</v>
       </c>
       <c r="CC5">
-        <v>0.0408296983652969</v>
+        <v>0.0311717408016352</v>
       </c>
       <c r="CD5">
-        <v>0.0257128964432092</v>
+        <v>0.0244356949850958</v>
       </c>
       <c r="CE5">
-        <v>0.0162280297471815</v>
+        <v>0.0318456268123007</v>
+      </c>
+      <c r="CF5">
+        <v>0.0229977050274258</v>
+      </c>
+      <c r="CG5">
+        <v>0.0324360817092122</v>
       </c>
       <c r="CH5">
-        <v>0.0205909356349249</v>
+        <v>0.0346366154010436</v>
+      </c>
+      <c r="CI5">
+        <v>0.0312428294849407</v>
       </c>
       <c r="CK5">
-        <v>0.0311551035140764</v>
+        <v>0.0356899496387694</v>
+      </c>
+      <c r="CL5">
+        <v>0.0326025142927295</v>
       </c>
       <c r="CM5">
-        <v>0.0343564845282629</v>
+        <v>0.0310605598836029</v>
       </c>
       <c r="CN5">
-        <v>0.0347206067970177</v>
+        <v>0.0245021635505439</v>
+      </c>
+      <c r="CO5">
+        <v>0.0269499376757339</v>
       </c>
       <c r="CP5">
-        <v>0.0256341745781637</v>
+        <v>0.0293290365283051</v>
+      </c>
+      <c r="CQ5">
+        <v>0.029832050171189</v>
+      </c>
+      <c r="CR5">
+        <v>0.0319182088043288</v>
       </c>
       <c r="CS5">
-        <v>0.0320645260210059</v>
+        <v>0.0318924010310776</v>
+      </c>
+      <c r="CT5">
+        <v>0.0362487970349018</v>
       </c>
       <c r="CU5">
-        <v>0.0377150304385902</v>
+        <v>0.0183825159588057</v>
+      </c>
+      <c r="CV5">
+        <v>0.032302316937075</v>
       </c>
       <c r="CW5">
-        <v>0.0302169887318468</v>
+        <v>0.019611849563961</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.0256697458804646</v>
+      </c>
+      <c r="D6">
+        <v>0.0138015550710419</v>
+      </c>
+      <c r="E6">
         <v>0.0233342627528948</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>0.0392368009635609</v>
+      </c>
+      <c r="H6">
+        <v>0.0350304173912722</v>
+      </c>
+      <c r="I6">
+        <v>0.0265178839374442</v>
+      </c>
+      <c r="J6">
         <v>0.0292423568995081</v>
       </c>
-      <c r="D6">
-        <v>0.024678964519178</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>0.0338396394489518</v>
       </c>
-      <c r="G6">
-        <v>0.026937730198044</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>0.0301675310437337</v>
+      </c>
+      <c r="M6">
+        <v>0.0312105341481893</v>
+      </c>
+      <c r="N6">
         <v>0.0222381501220509</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.0187527380076909</v>
       </c>
-      <c r="J6">
-        <v>0.0292286485614144</v>
-      </c>
-      <c r="M6">
-        <v>0.0392368009635609</v>
-      </c>
-      <c r="N6">
-        <v>0.0171030340298035</v>
+      <c r="P6">
+        <v>0.0293542421525924</v>
       </c>
       <c r="Q6">
-        <v>0.0386253542160283</v>
-      </c>
-      <c r="S6">
-        <v>0.0221488180914475</v>
-      </c>
-      <c r="T6">
-        <v>0.0223844617899222</v>
+        <v>0.0171079652646863</v>
+      </c>
+      <c r="V6">
+        <v>0.0270762301586723</v>
       </c>
       <c r="W6">
-        <v>0.026558166002696</v>
-      </c>
-      <c r="X6">
-        <v>0.0350304173912722</v>
+        <v>0.0167452766683679</v>
       </c>
       <c r="Y6">
-        <v>0.0317290383082035</v>
+        <v>0.0354122534686195</v>
+      </c>
+      <c r="Z6">
+        <v>0.0308954249105523</v>
       </c>
       <c r="AA6">
-        <v>0.0287917465445255</v>
-      </c>
-      <c r="AB6">
-        <v>0.0363227284695992</v>
+        <v>0.024568328740463</v>
       </c>
       <c r="AC6">
-        <v>0.0311395213339237</v>
+        <v>0.0264476880266894</v>
       </c>
       <c r="AD6">
-        <v>0.0268167467497363</v>
+        <v>0.0207759704733718</v>
       </c>
       <c r="AE6">
-        <v>0.0256324814662974</v>
+        <v>0.0333652736121756</v>
+      </c>
+      <c r="AF6">
+        <v>0.0222276408622413</v>
       </c>
       <c r="AG6">
-        <v>0.0237435436043203</v>
+        <v>0.0173472698138025</v>
       </c>
       <c r="AH6">
-        <v>0.030138847604448</v>
+        <v>0.0288643096800924</v>
+      </c>
+      <c r="AI6">
+        <v>0.016332813395267</v>
       </c>
       <c r="AJ6">
-        <v>0.0192080062581085</v>
+        <v>0.0221210015433662</v>
       </c>
       <c r="AK6">
-        <v>0.0207727547293901</v>
+        <v>0.0285017886369226</v>
+      </c>
+      <c r="AL6">
+        <v>0.02017180979619</v>
       </c>
       <c r="AM6">
-        <v>0.0228525784709912</v>
+        <v>0.0297207577206428</v>
       </c>
       <c r="AN6">
-        <v>0.0206929777687201</v>
+        <v>0.0171977733866468</v>
       </c>
       <c r="AO6">
-        <v>0.0271222408649425</v>
+        <v>0.0198388462162129</v>
       </c>
       <c r="AP6">
-        <v>0.0267940497831837</v>
+        <v>0.0314958484297086</v>
       </c>
       <c r="AQ6">
-        <v>0.0206579925459967</v>
+        <v>0.0225792179049392</v>
       </c>
       <c r="AR6">
-        <v>0.0158411300587269</v>
+        <v>0.026233384607822</v>
+      </c>
+      <c r="AS6">
+        <v>0.022921062254543</v>
+      </c>
+      <c r="AT6">
+        <v>0.0170948933388915</v>
+      </c>
+      <c r="AU6">
+        <v>0.0316314853050255</v>
       </c>
       <c r="AV6">
-        <v>0.0247265259038006</v>
+        <v>0.0255832248732783</v>
       </c>
       <c r="AW6">
-        <v>0.0302554874595632</v>
+        <v>0.0193058457912403</v>
       </c>
       <c r="AX6">
-        <v>0.0216068728594302</v>
+        <v>0.0337680498226502</v>
+      </c>
+      <c r="AY6">
+        <v>0.019760461641613</v>
+      </c>
+      <c r="AZ6">
+        <v>0.0283688858341894</v>
       </c>
       <c r="BA6">
-        <v>0.0354977018026713</v>
+        <v>0.0392854491664451</v>
       </c>
       <c r="BB6">
-        <v>0.0293862252682287</v>
+        <v>0.0343569685568899</v>
+      </c>
+      <c r="BC6">
+        <v>0.0366001212877323</v>
       </c>
       <c r="BD6">
-        <v>0.0270656633337024</v>
+        <v>0.0265166046958114</v>
       </c>
       <c r="BE6">
-        <v>0.0320693738528038</v>
+        <v>0.0366351180212774</v>
       </c>
       <c r="BF6">
-        <v>0.0347568571365435</v>
+        <v>0.0275325542455494</v>
       </c>
       <c r="BG6">
-        <v>0.0279618634337321</v>
+        <v>0.0360358718187183</v>
+      </c>
+      <c r="BH6">
+        <v>0.0267800136126388</v>
       </c>
       <c r="BI6">
-        <v>0.0292605124977569</v>
+        <v>0.0412545420815876</v>
       </c>
       <c r="BJ6">
-        <v>0.0281504219303283</v>
+        <v>0.0309872492190645</v>
+      </c>
+      <c r="BK6">
+        <v>0.028497770761276</v>
       </c>
       <c r="BL6">
-        <v>0.0310018977117571</v>
+        <v>0.0298044914380713</v>
+      </c>
+      <c r="BM6">
+        <v>0.028047473773916</v>
+      </c>
+      <c r="BN6">
+        <v>0.0257159901359267</v>
       </c>
       <c r="BO6">
-        <v>0.0328289891538589</v>
+        <v>0.0322639316014581</v>
+      </c>
+      <c r="BP6">
+        <v>0.0283214270241867</v>
+      </c>
+      <c r="BQ6">
+        <v>0.034867569506793</v>
       </c>
       <c r="BR6">
-        <v>0.0355027846597277</v>
+        <v>0.028199049385648</v>
       </c>
       <c r="BS6">
-        <v>0.045650747049701</v>
+        <v>0.0357590439716021</v>
+      </c>
+      <c r="BT6">
+        <v>0.0318531037919331</v>
       </c>
       <c r="BU6">
-        <v>0.0324328741624407</v>
+        <v>0.026189904441769</v>
       </c>
       <c r="BV6">
-        <v>0.0296778063022032</v>
+        <v>0.0342083746544546</v>
+      </c>
+      <c r="BW6">
+        <v>0.0313853258926085</v>
       </c>
       <c r="BX6">
-        <v>0.0260141644660579</v>
+        <v>0.0328576867209916</v>
       </c>
       <c r="BY6">
-        <v>0.0188950521801669</v>
+        <v>0.0313216177431806</v>
+      </c>
+      <c r="BZ6">
+        <v>0.0251355073066755</v>
       </c>
       <c r="CA6">
-        <v>0.0309384677727775</v>
+        <v>0.0255736877918868</v>
+      </c>
+      <c r="CB6">
+        <v>0.0311801762451197</v>
       </c>
       <c r="CC6">
-        <v>0.0432207504259177</v>
+        <v>0.0332838070041971</v>
       </c>
       <c r="CD6">
-        <v>0.0231401240800866</v>
+        <v>0.0250615600487466</v>
       </c>
       <c r="CE6">
-        <v>0.0179045358940217</v>
+        <v>0.0345399435550544</v>
       </c>
       <c r="CF6">
-        <v>0.0324399697055956</v>
+        <v>0.0241167811321456</v>
+      </c>
+      <c r="CG6">
+        <v>0.0374348082720464</v>
       </c>
       <c r="CH6">
-        <v>0.0192646453570777</v>
+        <v>0.0353940710212763</v>
       </c>
       <c r="CI6">
-        <v>0.0292179682532254</v>
+        <v>0.0289465272688921</v>
       </c>
       <c r="CJ6">
-        <v>0.0300837502887192</v>
+        <v>0.0276328955333609</v>
       </c>
       <c r="CK6">
-        <v>0.033266907653493</v>
+        <v>0.0370620924907407</v>
       </c>
       <c r="CL6">
-        <v>0.0271564559704867</v>
+        <v>0.0325070384873073</v>
       </c>
       <c r="CM6">
-        <v>0.0347575735906258</v>
+        <v>0.034474735243224</v>
       </c>
       <c r="CN6">
-        <v>0.0354230497494901</v>
+        <v>0.0258684148908445</v>
+      </c>
+      <c r="CO6">
+        <v>0.0248835760240179</v>
       </c>
       <c r="CP6">
-        <v>0.031220950189825</v>
+        <v>0.0321703971480343</v>
       </c>
       <c r="CQ6">
-        <v>0.0250191862658061</v>
+        <v>0.0326954113342097</v>
+      </c>
+      <c r="CR6">
+        <v>0.0323063037050407</v>
       </c>
       <c r="CS6">
-        <v>0.0327016479644764</v>
+        <v>0.0332318140276685</v>
       </c>
       <c r="CT6">
-        <v>0.0254284402108619</v>
+        <v>0.0381635815709156</v>
+      </c>
+      <c r="CU6">
+        <v>0.0221464638486137</v>
+      </c>
+      <c r="CV6">
+        <v>0.0339683085467519</v>
+      </c>
+      <c r="CW6">
+        <v>0.0216769195121883</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0.0191094858624051</v>
+      </c>
+      <c r="D7">
+        <v>0.01876933209211</v>
+      </c>
+      <c r="E7">
         <v>0.0274441683885394</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>0.0392471324310584</v>
+      </c>
+      <c r="H7">
+        <v>0.0408671320708942</v>
+      </c>
+      <c r="J7">
         <v>0.0354278335535313</v>
       </c>
-      <c r="D7">
-        <v>0.0336795530976864</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.0326242828394081</v>
       </c>
-      <c r="G7">
-        <v>0.0313832013543858</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>0.034035560944116</v>
+      </c>
+      <c r="M7">
+        <v>0.0334815476445537</v>
+      </c>
+      <c r="N7">
         <v>0.0209620345591701</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.0261530656148369</v>
       </c>
-      <c r="L7">
-        <v>0.0358477662748569</v>
-      </c>
-      <c r="N7">
-        <v>0.0290755991509399</v>
-      </c>
-      <c r="R7">
-        <v>0.0324171112249171</v>
+      <c r="P7">
+        <v>0.0316031126964863</v>
+      </c>
+      <c r="Q7">
+        <v>0.0291533620152861</v>
       </c>
       <c r="T7">
-        <v>0.0285153622811285</v>
+        <v>0.0144620597094196</v>
+      </c>
+      <c r="U7">
+        <v>0.0238268259520507</v>
       </c>
       <c r="V7">
-        <v>0.0173465876428203</v>
-      </c>
-      <c r="X7">
-        <v>0.0408671320708942</v>
+        <v>0.030503190553811</v>
+      </c>
+      <c r="W7">
+        <v>0.0275761821533143</v>
       </c>
       <c r="Y7">
-        <v>0.0318258718542519</v>
+        <v>0.0379103749732966</v>
       </c>
       <c r="Z7">
-        <v>0.0302010795132019</v>
+        <v>0.0317080653195755</v>
       </c>
       <c r="AA7">
-        <v>0.0365528783281076</v>
+        <v>0.0193958850343044</v>
       </c>
       <c r="AC7">
-        <v>0.0281466361016033</v>
-      </c>
-      <c r="AD7">
-        <v>0.0263459159813294</v>
+        <v>0.0311575974170122</v>
       </c>
       <c r="AE7">
-        <v>0.0289935658151718</v>
+        <v>0.0361189078211762</v>
+      </c>
+      <c r="AF7">
+        <v>0.0229637355599119</v>
+      </c>
+      <c r="AG7">
+        <v>0.0201225140539786</v>
       </c>
       <c r="AH7">
-        <v>0.030638313284272</v>
+        <v>0.0358036211397565</v>
       </c>
       <c r="AI7">
-        <v>0.0255946381894255</v>
+        <v>0.0259023360686014</v>
       </c>
       <c r="AJ7">
-        <v>0.0196670783659889</v>
+        <v>0.0265197243789304</v>
       </c>
       <c r="AK7">
-        <v>0.0235654680678862</v>
+        <v>0.0308498460044274</v>
       </c>
       <c r="AL7">
-        <v>0.0291942730169952</v>
+        <v>0.024945040488225</v>
       </c>
       <c r="AM7">
-        <v>0.0317730932617452</v>
+        <v>0.0376448712282611</v>
       </c>
       <c r="AO7">
-        <v>0.0323757894002844</v>
+        <v>0.0226010994452133</v>
       </c>
       <c r="AP7">
-        <v>0.0267613107933319</v>
+        <v>0.0338647223414017</v>
       </c>
       <c r="AQ7">
-        <v>0.0263556593369753</v>
+        <v>0.0229717650708961</v>
       </c>
       <c r="AR7">
-        <v>0.0178320351324145</v>
+        <v>0.0266694484621035</v>
+      </c>
+      <c r="AS7">
+        <v>0.0308629524582333</v>
       </c>
       <c r="AT7">
-        <v>0.0171277182001217</v>
+        <v>0.0190980784224846</v>
+      </c>
+      <c r="AU7">
+        <v>0.0362992912001115</v>
       </c>
       <c r="AV7">
-        <v>0.023810049045256</v>
+        <v>0.0324447286821884</v>
       </c>
       <c r="AW7">
-        <v>0.0241214335768327</v>
+        <v>0.0201462276101505</v>
       </c>
       <c r="AX7">
-        <v>0.0301489263663326</v>
+        <v>0.0320270832337533</v>
+      </c>
+      <c r="AY7">
+        <v>0.0231513326223172</v>
       </c>
       <c r="AZ7">
-        <v>0.0426559272736011</v>
+        <v>0.0305860414612823</v>
       </c>
       <c r="BA7">
-        <v>0.0424036982995979</v>
+        <v>0.0408483729791894</v>
       </c>
       <c r="BB7">
-        <v>0.0335421137676994</v>
+        <v>0.0387411296676289</v>
       </c>
       <c r="BC7">
-        <v>0.040143205189107</v>
+        <v>0.0423378460155803</v>
+      </c>
+      <c r="BD7">
+        <v>0.0301970900850568</v>
       </c>
       <c r="BE7">
-        <v>0.0354491568511834</v>
+        <v>0.0403307241940496</v>
       </c>
       <c r="BF7">
-        <v>0.0370155798127622</v>
+        <v>0.0323766976601323</v>
       </c>
       <c r="BG7">
-        <v>0.0315873541353966</v>
+        <v>0.044529289433227</v>
+      </c>
+      <c r="BH7">
+        <v>0.0289816466769137</v>
       </c>
       <c r="BI7">
-        <v>0.0336409340800415</v>
+        <v>0.0458646794520598</v>
       </c>
       <c r="BJ7">
-        <v>0.0307899581722525</v>
+        <v>0.0314514352323592</v>
+      </c>
+      <c r="BK7">
+        <v>0.0302536546449255</v>
       </c>
       <c r="BL7">
-        <v>0.0270279321068743</v>
+        <v>0.0361419759789667</v>
       </c>
       <c r="BM7">
-        <v>0.0347201997891801</v>
+        <v>0.0335056254220541</v>
+      </c>
+      <c r="BN7">
+        <v>0.0275783480014547</v>
+      </c>
+      <c r="BO7">
+        <v>0.0291301060026335</v>
+      </c>
+      <c r="BP7">
+        <v>0.0322292644655878</v>
+      </c>
+      <c r="BQ7">
+        <v>0.0355929657568622</v>
       </c>
       <c r="BR7">
-        <v>0.0325922568004785</v>
+        <v>0.0299418639746801</v>
       </c>
       <c r="BS7">
-        <v>0.0474255700959328</v>
+        <v>0.0340424149578073</v>
       </c>
       <c r="BT7">
-        <v>0.0418119996427208</v>
+        <v>0.0241628665869591</v>
       </c>
       <c r="BU7">
-        <v>0.0339300274757607</v>
+        <v>0.0266372967049005</v>
       </c>
       <c r="BV7">
-        <v>0.0337285996465703</v>
+        <v>0.0392278073470239</v>
       </c>
       <c r="BW7">
-        <v>0.0302516897976778</v>
+        <v>0.0367968291860628</v>
       </c>
       <c r="BX7">
-        <v>0.0286658118707244</v>
-      </c>
-      <c r="CA7">
-        <v>0.0323523532248405</v>
+        <v>0.0314933534659086</v>
+      </c>
+      <c r="BY7">
+        <v>0.0301225767571599</v>
+      </c>
+      <c r="BZ7">
+        <v>0.032930389981874</v>
       </c>
       <c r="CB7">
-        <v>0.0348076936833867</v>
+        <v>0.0316646956529697</v>
       </c>
       <c r="CC7">
-        <v>0.041674142172102</v>
+        <v>0.0379348848981334</v>
       </c>
       <c r="CD7">
-        <v>0.0266906964988211</v>
+        <v>0.0294807210213294</v>
       </c>
       <c r="CE7">
-        <v>0.0209633944016349</v>
+        <v>0.0377763309740012</v>
       </c>
       <c r="CF7">
-        <v>0.0334156609455823</v>
+        <v>0.0265265810539829</v>
       </c>
       <c r="CG7">
-        <v>0.0366917162236608</v>
+        <v>0.0381642746834759</v>
       </c>
       <c r="CH7">
-        <v>0.0248953516421062</v>
-      </c>
-      <c r="CJ7">
-        <v>0.0323767563893909</v>
+        <v>0.0378900320893001</v>
+      </c>
+      <c r="CI7">
+        <v>0.0389265754350685</v>
       </c>
       <c r="CK7">
-        <v>0.0357960172164548</v>
+        <v>0.0403870964079295</v>
+      </c>
+      <c r="CL7">
+        <v>0.0371970755772992</v>
       </c>
       <c r="CM7">
-        <v>0.0374577805014958</v>
+        <v>0.0320403543756727</v>
       </c>
       <c r="CN7">
-        <v>0.0375318141080967</v>
+        <v>0.0280369795696889</v>
+      </c>
+      <c r="CO7">
+        <v>0.0269602766777471</v>
       </c>
       <c r="CP7">
-        <v>0.0282610495324223</v>
+        <v>0.0323675769613796</v>
       </c>
       <c r="CQ7">
-        <v>0.027207305821569</v>
+        <v>0.0355766600850973</v>
+      </c>
+      <c r="CR7">
+        <v>0.0335915252405382</v>
       </c>
       <c r="CS7">
-        <v>0.0342303678046826</v>
+        <v>0.034967924023788</v>
+      </c>
+      <c r="CT7">
+        <v>0.0396396822689921</v>
+      </c>
+      <c r="CU7">
+        <v>0.0220696883674071</v>
+      </c>
+      <c r="CV7">
+        <v>0.0362477713813919</v>
       </c>
       <c r="CW7">
-        <v>0.0361705941650472</v>
+        <v>0.0227991190995428</v>
       </c>
     </row>
   </sheetData>
